--- a/20.10.2023/likeUser/userDetails.xlsx
+++ b/20.10.2023/likeUser/userDetails.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anusuya\instagram project\20.10.2023\likeUser\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24540" windowHeight="10860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24540" windowHeight="10860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -55,17 +55,16 @@
     <t>Mike@2023</t>
   </si>
   <si>
-    <t>https://www.instagram.com/p/Cyk7tpiyJIX/?utm_source=ig_web_copy_link&amp;igshid=MzRlODBiNWFlZA==</t>
-  </si>
-  <si>
     <t>https://www.instagram.com/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/Cyz4ImgyBhh/?utm_source=ig_web_copy_link&amp;igshid=MzRlODBiNWFlZA==</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,18 +387,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="39.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="66.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="66.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="30" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -423,7 +422,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -439,13 +438,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -456,14 +455,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -471,15 +470,15 @@
         <v>8</v>
       </c>
       <c r="B1">
-        <v>45219.739305844909</v>
+        <v>45224.445849305557</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="n">
-        <v>4.0</v>
+      <c r="B2">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
